--- a/xlsx/a69_f21_cUPPachuca.xlsx
+++ b/xlsx/a69_f21_cUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\1VoBo Upp 1er trim\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>46585</t>
   </si>
@@ -39,9 +39,6 @@
     <t>a69_f21_c</t>
   </si>
   <si>
-    <t>La información deberá incluir los estados financieros y demás información presupuestaria, programática y contable que emanen de los registros de los sujetos obligados; dichos estados deberán estar ordenados de conformidad con los criterios, lineamientos y disposiciones normativas correspondientes que emita el Consejo Nacional de Armonización Contable</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -114,7 +111,13 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/03-cuenta_publica/01-caceh/2019/1.-acuse-de-recepcion-cuenta-publica-2019.aspx</t>
+    <t>La información deberá incluir los estados financieros y demás información presupuestaria, programática y contable que emanen de los registros de los sujetos obligados; dichos estados deberán estar ordenados de conformidad con los criterios, lineamientos y disposiciones normativas correspondientes que emita el Consejo Nacional de Armonización Contable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La cuenta Públicas el ejercicio fiscal 2020, se entrega en la CACEH En marzo , motivo por el cual se indica el Hipervínculo </t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/03-cuenta_publica/01-caceh/2020/1-Acuse-de-recepcion-Cuenta-Publica-2020.aspx</t>
   </si>
 </sst>
 </file>
@@ -134,11 +137,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -167,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -190,12 +195,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -219,11 +237,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -509,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,84 +563,84 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="G3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -631,53 +652,55 @@
     </row>
     <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44561</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="4">
-        <v>43831</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="4">
+        <v>44298</v>
+      </c>
+      <c r="G8" s="4">
+        <v>44298</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="4">
-        <v>43961</v>
-      </c>
-      <c r="G8" s="4">
-        <v>43961</v>
-      </c>
-      <c r="H8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/xlsx/a69_f21_cUPPachuca.xlsx
+++ b/xlsx/a69_f21_cUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Cierre Presupuestal Ene-Marz21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>46585</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>La información deberá incluir los estados financieros y demás información presupuestaria, programática y contable que emanen de los registros de los sujetos obligados; dichos estados deberán estar ordenados de conformidad con los criterios, lineamientos y disposiciones normativas correspondientes que emita el Consejo Nacional de Armonización Contable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La cuenta Públicas el ejercicio fiscal 2020, se entrega en la CACEH En marzo , motivo por el cual se indica el Hipervínculo </t>
   </si>
   <si>
     <t>http://www.upp.edu.mx/leygralcontabilidad/mc/03-cuenta_publica/01-caceh/2020/1-Acuse-de-recepcion-Cuenta-Publica-2020.aspx</t>
@@ -530,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,8 +536,8 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="98.7109375" customWidth="1"/>
-    <col min="5" max="5" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="124" customWidth="1"/>
+    <col min="5" max="5" width="73.140625" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.7109375" customWidth="1"/>
@@ -676,7 +673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2021</v>
       </c>
@@ -684,10 +681,10 @@
         <v>44197</v>
       </c>
       <c r="C8" s="4">
-        <v>44561</v>
+        <v>44286</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>29</v>
@@ -698,9 +695,7 @@
       <c r="G8" s="4">
         <v>44298</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="H8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/xlsx/a69_f21_cUPPachuca.xlsx
+++ b/xlsx/a69_f21_cUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Cierre Presupuestal Ene-Marz21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>46585</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>La información deberá incluir los estados financieros y demás información presupuestaria, programática y contable que emanen de los registros de los sujetos obligados; dichos estados deberán estar ordenados de conformidad con los criterios, lineamientos y disposiciones normativas correspondientes que emita el Consejo Nacional de Armonización Contable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La cuenta Públicas el ejercicio fiscal 2020, se entrega en la CACEH En marzo , motivo por el cual se indica el Hipervínculo </t>
   </si>
   <si>
     <t>http://www.upp.edu.mx/leygralcontabilidad/mc/03-cuenta_publica/01-caceh/2020/1-Acuse-de-recepcion-Cuenta-Publica-2020.aspx</t>
@@ -527,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,8 +539,8 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="124" customWidth="1"/>
-    <col min="5" max="5" width="73.140625" customWidth="1"/>
+    <col min="4" max="4" width="98.7109375" customWidth="1"/>
+    <col min="5" max="5" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.7109375" customWidth="1"/>
@@ -673,7 +676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2021</v>
       </c>
@@ -681,10 +684,10 @@
         <v>44197</v>
       </c>
       <c r="C8" s="4">
-        <v>44286</v>
+        <v>44561</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>29</v>
@@ -695,7 +698,9 @@
       <c r="G8" s="4">
         <v>44298</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/xlsx/a69_f21_cUPPachuca.xlsx
+++ b/xlsx/a69_f21_cUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>46585</t>
   </si>
@@ -39,6 +34,9 @@
     <t>a69_f21_c</t>
   </si>
   <si>
+    <t>La información deberá incluir los estados financieros y demás información presupuestaria, programática y contable que emanen de los registros de los sujetos obligados; dichos estados deberán estar ordenados de conformidad con los criterios, lineamientos y disposiciones normativas correspondientes que emita el Consejo Nacional de Armonización Contable</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -111,13 +109,7 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>La información deberá incluir los estados financieros y demás información presupuestaria, programática y contable que emanen de los registros de los sujetos obligados; dichos estados deberán estar ordenados de conformidad con los criterios, lineamientos y disposiciones normativas correspondientes que emita el Consejo Nacional de Armonización Contable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La cuenta Públicas el ejercicio fiscal 2020, se entrega en la CACEH En marzo , motivo por el cual se indica el Hipervínculo </t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/03-cuenta_publica/01-caceh/2020/1-Acuse-de-recepcion-Cuenta-Publica-2020.aspx</t>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/03-cuenta_publica/01-caceh/2021/Acuse-Cuenta-Publica-CASEH-2021.pdf</t>
   </si>
 </sst>
 </file>
@@ -172,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -208,44 +200,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -520,7 +557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -528,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,12 +576,12 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="98.7109375" customWidth="1"/>
+    <col min="4" max="4" width="121.7109375" customWidth="1"/>
     <col min="5" max="5" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -553,169 +590,176 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="H4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="H5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44197</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="H7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="4">
-        <v>44298</v>
-      </c>
-      <c r="G8" s="4">
-        <v>44298</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3">
+        <v>44659</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44659</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A6:H6"/>
+  <mergeCells count="9">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A6:I6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f21_cUPPachuca.xlsx
+++ b/xlsx/a69_f21_cUPPachuca.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -109,7 +122,7 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/03-cuenta_publica/01-caceh/2021/Acuse-Cuenta-Publica-CASEH-2021.pdf</t>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/03-cuenta_publica/01-caceh/2022/Acuse-Cuenta-Publica-CASEH-2022.pdf</t>
   </si>
 </sst>
 </file>
@@ -164,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,50 +204,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right/>
+      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -242,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -258,31 +230,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -565,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,12 +531,10 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="121.7109375" customWidth="1"/>
+    <col min="4" max="4" width="69.7109375" customWidth="1"/>
     <col min="5" max="5" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -590,105 +543,102 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -712,50 +662,43 @@
       <c r="G7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="3">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D8" s="7" t="s">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="3">
-        <v>44659</v>
+        <v>45026</v>
       </c>
       <c r="G8" s="3">
-        <v>44659</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H11" s="13"/>
+        <v>45026</v>
+      </c>
+      <c r="H8" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
+  <mergeCells count="7">
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A6:I6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1"/>
